--- a/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
+++ b/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C006B-E5B0-D347-A42D-3855E2287769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D3FFF6-097A-4861-A910-7B9D84D68F37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="31760" windowHeight="20540" xr2:uid="{31DEBCDE-38FC-CA4F-B845-A280DAD82E45}"/>
+    <workbookView xWindow="1845" yWindow="465" windowWidth="31755" windowHeight="20535" xr2:uid="{31DEBCDE-38FC-CA4F-B845-A280DAD82E45}"/>
   </bookViews>
   <sheets>
     <sheet name="Solving for Dia" sheetId="1" r:id="rId1"/>
     <sheet name="Setting Dia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Flow Rate Calculations for BJ-01 Oxidizer System</t>
   </si>
@@ -905,18 +900,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50320EA0-1C53-C140-9BBB-80C6C09D667F}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,13 +927,13 @@
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="17" thickTop="1">
+    <row r="4" spans="1:8" ht="15.75" thickTop="1">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -955,7 +950,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -965,7 +960,7 @@
       </c>
       <c r="D5" s="37">
         <f>D13+1</f>
-        <v>2.5300000000000002</v>
+        <v>4.53</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>44</v>
@@ -1013,7 +1008,7 @@
       </c>
       <c r="D7">
         <f>(0.25*((B14*PI()/B13)^2)*(((D12*12)/B14)+(B15*D11)))</f>
-        <v>67.287655105265017</v>
+        <v>25.287159721311969</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>46</v>
@@ -1052,10 +1047,10 @@
         <v>42</v>
       </c>
       <c r="H9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="14">
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>14</v>
@@ -1092,7 +1087,7 @@
       </c>
       <c r="D12" s="4">
         <f>B6-(B11+B16)</f>
-        <v>699.25</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1107,7 +1102,7 @@
       </c>
       <c r="D13" s="34">
         <f>SUM(H5:H11)</f>
-        <v>1.53</v>
+        <v>3.5300000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1122,7 +1117,7 @@
       </c>
       <c r="D14" s="40">
         <f>(D18/2)</f>
-        <v>0.22017367032223856</v>
+        <v>0.32528732166287166</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1137,22 +1132,22 @@
       </c>
       <c r="D15" s="40">
         <f>PI()*(D14^2)</f>
-        <v>0.15229324380825454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.33241770434208023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="40">
         <f>B13/(12*B14*D15)</f>
-        <v>60.337558193201232</v>
+        <v>27.642939412323958</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -1163,7 +1158,7 @@
       </c>
       <c r="D17" s="41">
         <f>B13*(D16/12)</f>
-        <v>15.084389548300308</v>
+        <v>6.9107348530809896</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="4">
@@ -1179,7 +1174,7 @@
       </c>
       <c r="D18" s="47">
         <f>(D5/(D6+D7))^(1/4)</f>
-        <v>0.44034734064447711</v>
+        <v>0.65057464332574333</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -1188,7 +1183,7 @@
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
       <c r="F19">
-        <v>0.42499999999999999</v>
+        <v>0.41249999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1203,7 +1198,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="19"/>
       <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
@@ -1211,7 +1206,7 @@
       </c>
       <c r="D21" s="42">
         <f>D20*D18</f>
-        <v>0.55043417580559639</v>
+        <v>0.81321830415717922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1219,13 +1214,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="16" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:6" ht="17" thickTop="1">
+    <row r="24" spans="1:6" ht="15.75" thickTop="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,15 +1253,13 @@
       </c>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1">
-      <c r="A29" s="26" t="s">
-        <v>35</v>
-      </c>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="16" thickTop="1">
+    <row r="30" spans="1:6" ht="15" thickTop="1">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1301,14 +1294,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1324,13 +1317,13 @@
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="17" thickTop="1">
+    <row r="4" spans="1:8" ht="15.75" thickTop="1">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1340,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>6.103793592633334</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="32" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1588,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="19"/>
       <c r="B21" s="14"/>
       <c r="C21" s="1"/>
@@ -1606,13 +1599,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="16" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:6" ht="17" thickTop="1">
+    <row r="24" spans="1:6" ht="15.75" thickTop="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1638,7 @@
       </c>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="26" t="s">
         <v>35</v>
       </c>
@@ -1653,7 +1646,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="16" thickTop="1">
+    <row r="30" spans="1:6" ht="15" thickTop="1">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>

--- a/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
+++ b/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D3FFF6-097A-4861-A910-7B9D84D68F37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8D910-2BD8-4728-9B1B-16EB555865D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="465" windowWidth="31755" windowHeight="20535" xr2:uid="{31DEBCDE-38FC-CA4F-B845-A280DAD82E45}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D7">
         <f>(0.25*((B14*PI()/B13)^2)*(((D12*12)/B14)+(B15*D11)))</f>
-        <v>25.287159721311969</v>
+        <v>16.336601301716218</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>46</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D12" s="4">
         <f>B6-(B11+B16)</f>
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D14" s="40">
         <f>(D18/2)</f>
-        <v>0.32528732166287166</v>
+        <v>0.36282767365345697</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D15" s="40">
         <f>PI()*(D14^2)</f>
-        <v>0.33241770434208023</v>
+        <v>0.41357157437695441</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -1140,14 +1140,14 @@
         <v>37</v>
       </c>
       <c r="B16" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="40">
         <f>B13/(12*B14*D15)</f>
-        <v>27.642939412323958</v>
+        <v>22.218650966414156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D17" s="41">
         <f>B13*(D16/12)</f>
-        <v>6.9107348530809896</v>
+        <v>5.554662741603539</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="4">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D18" s="47">
         <f>(D5/(D6+D7))^(1/4)</f>
-        <v>0.65057464332574333</v>
+        <v>0.72565534730691394</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D21" s="42">
         <f>D20*D18</f>
-        <v>0.81321830415717922</v>
+        <v>0.90706918413364246</v>
       </c>
     </row>
     <row r="22" spans="1:6">

--- a/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
+++ b/FlowRateCalcs_BJ01_Oxidizer_new.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8D910-2BD8-4728-9B1B-16EB555865D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6DB68-A265-D844-BBE0-76B01B1449F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="465" windowWidth="31755" windowHeight="20535" xr2:uid="{31DEBCDE-38FC-CA4F-B845-A280DAD82E45}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="31760" windowHeight="20540" activeTab="2" xr2:uid="{31DEBCDE-38FC-CA4F-B845-A280DAD82E45}"/>
   </bookViews>
   <sheets>
     <sheet name="Solving for Dia" sheetId="1" r:id="rId1"/>
     <sheet name="Setting Dia" sheetId="2" r:id="rId2"/>
+    <sheet name="Fueling Calcs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Flow Rate Calculations for BJ-01 Oxidizer System</t>
   </si>
@@ -218,6 +224,54 @@
   <si>
     <t>D (lbm^2 * in^-4 * s^-2)</t>
   </si>
+  <si>
+    <t>deltaP (psi)</t>
+  </si>
+  <si>
+    <t>Inner Dia (in)</t>
+  </si>
+  <si>
+    <t>Max Tank Mass (slugs)</t>
+  </si>
+  <si>
+    <t>Area (in^2)</t>
+  </si>
+  <si>
+    <t>Velocity (in/s)</t>
+  </si>
+  <si>
+    <t>Mass Flux (slug/s)</t>
+  </si>
+  <si>
+    <t>Fueling Time (s)</t>
+  </si>
+  <si>
+    <t>Assumes:</t>
+  </si>
+  <si>
+    <t>No losses, either major or minor</t>
+  </si>
+  <si>
+    <t>Height of RT Inlet (in)</t>
+  </si>
+  <si>
+    <t>deltaH [FT outlet - RT inlet] (in)</t>
+  </si>
+  <si>
+    <t>Height of Fueling Ball Valve Outlet (in)</t>
+  </si>
+  <si>
+    <t>Min. N2O Liquid Density [75degF] (slug/in^3)</t>
+  </si>
+  <si>
+    <t>Neglects grav head of liquid N2O in RT, assumes the deltaP corresponds to bottom of RT</t>
+  </si>
+  <si>
+    <t>deltaP is the lower end of the range of values for deltaP during fueling given by Cameron Bucceleti (MASA Chief Eng)</t>
+  </si>
+  <si>
+    <t>Grav Accel (in/s^2)</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +282,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +373,14 @@
       <color theme="1"/>
       <name val="ACaslonPro-Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -473,11 +535,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,6 +661,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,18 +978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50320EA0-1C53-C140-9BBB-80C6C09D667F}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="48.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +1011,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1">
+    <row r="4" spans="1:8" ht="17" thickTop="1">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -950,7 +1028,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -1214,13 +1292,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="16" thickBot="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickTop="1">
+    <row r="24" spans="1:6" ht="17" thickTop="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1337,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="15" thickTop="1">
+    <row r="30" spans="1:6" ht="16" thickTop="1">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1294,14 +1372,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="48.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1323,7 +1401,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1">
+    <row r="4" spans="1:8" ht="17" thickTop="1">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1418,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="21" t="s">
         <v>3</v>
       </c>
@@ -1599,13 +1677,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="16" thickBot="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickTop="1">
+    <row r="24" spans="1:6" ht="17" thickTop="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1724,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="15" thickTop="1">
+    <row r="30" spans="1:6" ht="16" thickTop="1">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1671,4 +1749,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1715E0F9-B670-834B-9B67-C3277A0B4928}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1">
+        <v>8.456018612654321E-4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1.0537823421600361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>386.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <f>B5-B4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <f>PI()*(B3^2)/4</f>
+        <v>0.19634954084936207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <f>SQRT((2*(B2+(B1*B7*B9)))/B1)</f>
+        <v>357.10660021560483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="48">
+        <f>B1*B10*B11</f>
+        <v>5.9291671991560824E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="48">
+        <f>B6/B13</f>
+        <v>17.772855896356312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>